--- a/Competências_FredericoGentil.xlsx
+++ b/Competências_FredericoGentil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT\Escoteiros\Escotista\Nível Preliminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F0099-A47C-4C01-9C10-88EAA9514B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE0A43-9C10-4C63-850D-2A2A3F3A288A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4832142-AD87-4E7A-9BFD-16DA70995722}"/>
   </bookViews>
@@ -918,10 +918,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15384615384615385</c:v>
@@ -1818,10 +1818,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3809523809523808E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23809523809523808</c:v>
@@ -4028,7 +4028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC16E5-2232-477B-8024-82178174FFB0}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4101,10 +4103,10 @@
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4297,11 +4299,11 @@
       </c>
       <c r="C17" s="15">
         <f>COUNTIF(C2:C14,"x")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" ref="D17:G17" si="0">COUNTIF(D2:D14,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="0"/>
@@ -4325,11 +4327,11 @@
       </c>
       <c r="C19" s="22">
         <f>C17/$B$17</f>
-        <v>0.23076923076923078</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D19" s="22">
         <f t="shared" ref="D19:G19" si="1">D17/$B$17</f>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
@@ -5033,11 +5035,11 @@
       </c>
       <c r="C4" s="9">
         <f>Essenciais!C17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9">
         <f>Essenciais!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
         <f>Essenciais!E17</f>
@@ -5061,11 +5063,11 @@
       </c>
       <c r="C5" s="20">
         <f>C4/$B$4</f>
-        <v>0.23076923076923078</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D5" s="20">
         <f t="shared" ref="D5:G5" si="0">D4/$B$4</f>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
@@ -5147,11 +5149,11 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" ref="C8:G8" si="2">SUM(C4,C6)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
@@ -5175,11 +5177,11 @@
       </c>
       <c r="C9" s="20">
         <f>C8/$B$8</f>
-        <v>0.19047619047619047</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D9" s="20">
         <f t="shared" ref="D9:G9" si="3">D8/$B$8</f>
-        <v>0</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="3"/>
